--- a/templates/request_report_percent.xlsx
+++ b/templates/request_report_percent.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="12585"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="125725" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Итоговые показатели</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Оборот в день</t>
   </si>
   <si>
-    <t>${avl_proc_dly_withdraw_rate}% Списания</t>
-  </si>
-  <si>
     <t>Фикс. Платеж</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>${table:t1.balance}</t>
   </si>
   <si>
-    <t>Powered by ccs.msk.ru</t>
-  </si>
-  <si>
     <t>Дата снятия отчета: ${report_date}</t>
   </si>
   <si>
@@ -140,16 +134,19 @@
   </si>
   <si>
     <t>${table:t1.full_days_count}</t>
+  </si>
+  <si>
+    <t>% Списания</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,7 +281,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -301,15 +298,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>127635</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>255476</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>746760</xdr:colOff>
+      <xdr:colOff>225880</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>866775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -319,21 +316,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="127635" y="314325"/>
-          <a:ext cx="1790700" cy="371475"/>
+          <a:off x="255476" y="171450"/>
+          <a:ext cx="1141979" cy="1266825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -346,9 +337,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -386,7 +377,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -420,7 +411,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -455,10 +445,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -631,15 +620,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
@@ -656,46 +647,51 @@
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="I2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="79.5" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
       <c r="B7" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -706,71 +702,71 @@
         <v>18</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="6" t="s">
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="10" t="s">
         <v>5</v>
       </c>
@@ -779,7 +775,7 @@
       </c>
       <c r="C18" s="12"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
@@ -788,7 +784,7 @@
       </c>
       <c r="C19" s="13"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="10" t="s">
         <v>2</v>
       </c>
@@ -797,7 +793,7 @@
       </c>
       <c r="C20" s="13"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="10" t="s">
         <v>3</v>
       </c>
@@ -806,7 +802,7 @@
       </c>
       <c r="C21" s="12"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
         <v>4</v>
       </c>
@@ -815,7 +811,7 @@
       </c>
       <c r="C22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
@@ -824,7 +820,7 @@
       </c>
       <c r="C23" s="13"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
         <v>7</v>
       </c>
@@ -833,10 +829,8 @@
       </c>
       <c r="C24" s="12"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I30" s="4" t="s">
-        <v>32</v>
-      </c>
+    <row r="30" spans="1:9">
+      <c r="I30" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -844,11 +838,11 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A2:C4"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A1:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>

--- a/templates/request_report_percent.xlsx
+++ b/templates/request_report_percent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Итоговые показатели</t>
   </si>
@@ -137,16 +137,47 @@
   </si>
   <si>
     <t>% Списания</t>
+  </si>
+  <si>
+    <t>Ожидаемая сумма</t>
+  </si>
+  <si>
+    <t>Отклонение</t>
+  </si>
+  <si>
+    <t>Оборот выполнения графика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разница в обороте </t>
+  </si>
+  <si>
+    <t>${table:t1.await_summ}</t>
+  </si>
+  <si>
+    <t>${table:t1.margin}</t>
+  </si>
+  <si>
+    <t>${table:t1.normal_turnover}</t>
+  </si>
+  <si>
+    <t>${table:t1.turnover_margin}</t>
+  </si>
+  <si>
+    <t>Процент списания</t>
+  </si>
+  <si>
+    <t>${avl_proc_dly_withdraw_rate}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +228,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -212,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -235,11 +274,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -279,8 +356,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -624,10 +716,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B23" sqref="B23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -641,18 +733,18 @@
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
     <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:13">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -660,17 +752,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:13">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="79.5" customHeight="1">
+    <row r="4" spans="1:13" ht="79.5" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75">
+    <row r="6" spans="1:13" ht="15.75">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -678,7 +770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -686,12 +778,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1">
+    <row r="11" spans="1:13" ht="18" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -719,8 +811,20 @@
       <c r="I11" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -748,13 +852,25 @@
       <c r="I12" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:13">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:9">
@@ -813,36 +929,46 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="20"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="12"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="I30" s="4"/>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="I31" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A1:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
